--- a/mmrag_evaluation_results.xlsx
+++ b/mmrag_evaluation_results.xlsx
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -572,7 +572,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8685286045074463</v>
+        <v>0.6937690377235413</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -580,94 +580,100 @@
       <c r="J2" t="inlineStr">
         <is>
           <t>Diagnosis / Impression:
-The chest X-ray appears normal [R1]. Supporting Evidence:
-- The cardiac silhouette and mediastinum size are within normal limits [R1]. - There is no pulmonary edema, focal consolidation, pleural effusion, or pneumothorax [R1]. - A normal chest X-ray does not necessarily rule out all possible conditions or issues, but it is a good indicator of the absence of visible abnormalities [R1-IMAGE] [R1]. Supporting Evidence:
+The chest X-ray appears normal. [R1]
+Supporting Evidence:
+- The cardiac silhouette and mediastinum size are within normal limits. [R1]
+- There is no pulmonary edema. [R1]
+- There is no focal consolidation. [R1]
+- The chest x-ray does not show any visible signs of abnormalities or issues. [R1-IMAGE]
+Supporting Evidence:
+- Imaging findings do not demonstrate acute pathology [R1]. [R1]
+Next Steps / Recommendations:
+- Further evaluation and clinical correlation may be needed to assess the patient's overall health and identify any underlying issues that may not be visible on the x-ray. [R1-IMAGE]
+- The patient's symptoms and medical history should be taken into consideration for further evaluation [R1]. [R2-IMAGE] [R1].</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.9081307113170624</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.7540653556585312</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>XRAY</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Identify any abnormal findings on the chest X-ray.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.5831741690635681</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Diagnosis / Impression:
+Borderline cardiomegaly and enlarged pulmonary arteries are noted on the chest X-ray, with no acute pulmonary findings [R1]. Supporting Evidence:
+- The chest X-ray shows borderline cardiomegaly, which is a condition where the heart is slightly enlarged [R1]. - Enlarged pulmonary arteries are also visible on the X-ray, which may indicate pulmonary hypertension or other cardiovascular conditions [R1]. - The X-ray appears to be normal, with no visible abnormalities, but this does not rule out all possible conditions, and further evaluation may be needed [R1-IMAGE] [R1]. - A normal chest X-ray does not necessarily rule out all possible conditions, and further evaluation may be needed depending on the patient's clinical history and symptoms [R2-IMAGE] [R1]. Supporting Evidence:
 - Imaging findings do not demonstrate acute pathology. [R1]
 Next Steps / Recommendations:
-- Further evaluation and clinical correlation may be needed to assess the patient's overall health and identify any potential concerns that may not be visible on the x-ray [R1-IMAGE]. - The patient's positive TB test result should be further investigated and managed according to standard clinical guidelines [R1].</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.9605585932731628</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.7802792966365815</v>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="U2" t="n">
-        <v>2</v>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>XRAY</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Identify any abnormal findings on the chest X-ray.</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.5905872583389282</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Diagnosis / Impression:
-Borderline cardiomegaly and enlarged pulmonary arteries are noted on the chest X-ray, with no acute pulmonary findings [R1]. Supporting Evidence:
-- The chest X-ray shows borderline cardiomegaly, which is a condition where the heart is slightly enlarged [R1]. - Enlarged pulmonary arteries are also visible on the X-ray, which may indicate pulmonary hypertension or other conditions [R1]. - The lungs appear clear, with no visible signs of lung disease [R1]. - The inferior aspect of the X-ray is not clearly visible, but it is mentioned as XXXX XXXX XXXX [R1]. Supporting Evidence:
-- Imaging findings do not demonstrate acute pathology. [R1]
-Next Steps / Recommendations:
-- Further evaluation with additional imaging or clinical tests may be necessary to determine the cause of the borderline cardiomegaly and enlarged pulmonary arteries [Rx]. - The patient's clinical history and symptoms should be carefully reviewed to determine the best course of action [Rx] [R1].</t>
+- Further evaluation, including echocardiogram or cardiac MRI, may be needed to assess the extent of cardiomegaly and pulmonary artery enlargement [Rx]. - The patient's clinical history and symptoms should be reviewed to determine the need for further diagnostic testing or evaluation [Rx] [R1].</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -687,10 +693,10 @@
         <v>0.577</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.8771761655807495</v>
+        <v>0.8749522507190703</v>
       </c>
       <c r="R3" t="n">
-        <v>0.7270880827903747</v>
+        <v>0.7259761253595352</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -726,7 +732,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -738,7 +744,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.728770911693573</v>
+        <v>0.6016191244125366</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -747,10 +753,10 @@
         <is>
           <t>Diagnosis / Impression:
 The chest X-ray does not show cardiomegaly or an abnormal cardiac silhouette [R1-IMAGE], [R2-IMAGE]. Supporting Evidence:
-- The chest X-ray shows a mediastinal contour within normal limits [R1]. - The lungs are well-expanded and clear, with no acute cardiopulmonary abnormality identified [R1]. - The absence of cardiomegaly or an abnormal cardiac silhouette on the chest X-ray suggests that the heart appears to be within normal size and shape [R1-IMAGE], [R2-IMAGE] [R1]. Supporting Evidence:
+- The chest X-ray findings are consistent with a normal cardiac silhouette, which is within normal limits [R1]. - No signs of cardiomegaly are identified on the chest X-ray, indicating a normal cardiac size [R1-IMAGE] [R1]. - The absence of an abnormal cardiac silhouette on the chest X-ray suggests that there is no acute cardiopulmonary abnormality [R1]. Supporting Evidence:
 - Imaging findings do not demonstrate acute pathology. [R1]
 Next Steps / Recommendations:
-- Further evaluation with electrocardiogram (ECG) or echocardiogram is not indicated based on the chest X-ray findings [Rx]. - The patient's rib pain and other symptoms should be further evaluated by a healthcare provider to determine the underlying cause [Rx] [R1].</t>
+- Further evaluation is not necessary for cardiomegaly or abnormal cardiac silhouette at this time [Rx]. - Continue to monitor for any changes in symptoms or signs that may indicate a need for further evaluation [Rx] [R1].</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -770,10 +776,10 @@
         <v>0.572</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.9186312556266785</v>
+        <v>0.8804857373237609</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7453156278133393</v>
+        <v>0.7262428686618805</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -809,7 +815,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -821,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6451995372772217</v>
+        <v>0.7567882537841797</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -830,10 +836,10 @@
         <is>
           <t>Diagnosis / Impression:
 There are no signs of pulmonary congestion or edema on the chest X-ray [R1-IMAGE], [R2-IMAGE]. Supporting Evidence:
-• The chest x-ray does not show any signs of pulmonary congestion or edema [R1-IMAGE]. • The lungs appear to be clear and free of any significant fluid accumulation or other abnormalities in the image [R2-IMAGE] [R1]. • The cardiomediastinal silhouette is normal in size and contour, which suggests no signs of pulmonary congestion or edema [R1]. • The absence of comparison exam, but the radiographs do not show any signs of pulmonary congestion or edema [R1]. Supporting Evidence:
+• The chest X-ray does not show any signs of pulmonary congestion or edema [R1-IMAGE]. • The absence of pulmonary congestion or edema signs is consistent with the normal cardiomediastinal silhouette in size and contour [R1]. • The radiographic findings are not indicative of acute heart failure or fluid overload [R1]. • The absence of large pleural effusion also supports the absence of pulmonary congestion or edema [R1]. Supporting Evidence:
 - Imaging findings do not demonstrate acute pathology. [R1]
 Next Steps / Recommendations:
-• Short interval followup radiograph or CT thorax is not recommended for pulmonary congestion or edema, as the current radiographs do not show any signs of these conditions [R1]. • Further evaluation is not necessary for pulmonary congestion or edema, but follow-up radiographs or CT thorax may be necessary for other conditions, such as scarring or cavitary lesions [R1].</t>
+• Short interval follow-up radiograph or CT thorax is recommended to document resolution of the bilateral upper lobe opacities [R1]. • Further evaluation with CT thorax may be necessary to rule out a cavitary lesion in the left lung apex [R1].</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -853,10 +859,10 @@
         <v>0.5590000000000001</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8935598731040955</v>
+        <v>0.9270364761352539</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7262799365520478</v>
+        <v>0.7430182380676269</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -892,7 +898,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -904,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6376517415046692</v>
+        <v>0.6064373850822449</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -912,11 +918,11 @@
       <c r="J6" t="inlineStr">
         <is>
           <t>Diagnosis / Impression:
-Pleural effusion is not visible on the chest X-ray [R1]. Supporting Evidence:
-- The chest x-ray does not show any visible pleural effusion [R1-IMAGE]. - The chest x-ray does not show any visible pleural effusion [R2-IMAGE] [R1]. - However, the absence of visible pleural effusion on a chest x-ray does not necessarily rule out the presence of fluid in the pleural space [R2]. Supporting Evidence:
+Pleural effusion is not visible on the chest X-ray [R1], [R2], [R1-IMAGE], [R2-IMAGE]. Supporting Evidence:
+- The chest x-ray does not show any visible pleural effusion [R1-IMAGE]. - The chest x-ray does not show any visible signs of pleural effusion [R2-IMAGE] [R1]. - There is no pleural effusion noted in the radiographic findings [R1]. Supporting Evidence:
 - Imaging findings do not demonstrate acute pathology. [R1]
 Next Steps / Recommendations:
-- Further diagnostic tests, such as a chest CT scan or ultrasound, may be needed to confirm the presence or absence of pleural effusion [R2]. - Clinical correlation with patient symptoms and history is necessary to determine the need for further evaluation [R2].</t>
+- Further diagnostic testing may be necessary to confirm the absence of pleural effusion [Rx]. - Clinical evaluation and patient history should be considered to rule out other potential causes of symptoms [Rx] [R1].</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -936,10 +942,10 @@
         <v>0.604</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.8912955522537231</v>
+        <v>0.8819312155246735</v>
       </c>
       <c r="R6" t="n">
-        <v>0.7476477761268616</v>
+        <v>0.7429656077623368</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -975,7 +981,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -987,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7404071092605591</v>
+        <v>0.7404069900512695</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -1019,10 +1025,10 @@
         <v>0.586</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9221221208572388</v>
+        <v>0.9221220970153808</v>
       </c>
       <c r="R7" t="n">
-        <v>0.7540610604286193</v>
+        <v>0.7540610485076904</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1058,7 +1064,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -1070,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5877814292907715</v>
+        <v>0.5877813696861267</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -1102,10 +1108,10 @@
         <v>0.534</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.8763344287872314</v>
+        <v>0.876334410905838</v>
       </c>
       <c r="R8" t="n">
-        <v>0.7051672143936157</v>
+        <v>0.705167205452919</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1141,19 +1147,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7284969687461853</v>
+        <v>0.768307089805603</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1161,11 +1167,11 @@
       <c r="J9" t="inlineStr">
         <is>
           <t>Diagnosis / Impression:
-No acute cardiopulmonary disease [R2]. Supporting Evidence:
-- The heart, pulmonary vessels, and mediastinum are within normal limits [R2]. - There is no pleural effusion or pneumothorax [R2]. - There is no focal air space opacity to suggest a pneumonia [R2]. Supporting Evidence:
+The chest X-ray shows no acute cardiopulmonary disease [R2]. Supporting Evidence:
+- The heart, pulmonary structures, and mediastinum are within normal limits [R2]. - There is no pleural effusion or pneumothorax [R2]. - There is no focal air space opacity to suggest a pneumonia [R2]. Supporting Evidence:
 - Imaging findings do not demonstrate acute pathology. [R1]
 Next Steps / Recommendations:
-- Further evaluation of the cervical spinal fusion is recommended [Rx]. - Additional imaging or clinical assessment may be necessary to fully evaluate the patient's condition [Rx] [R1].</t>
+- Further evaluation of the cervical spinal fusion is necessary [Rx]. - Consultation with a healthcare professional is recommended to determine the cause and appropriate treatment for the patient's symptoms [Rx] [R1].</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -1185,10 +1191,10 @@
         <v>0.573</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9185490608215332</v>
+        <v>0.9304921269416808</v>
       </c>
       <c r="R9" t="n">
-        <v>0.7457745304107666</v>
+        <v>0.7517460634708404</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1224,7 +1230,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1268,10 +1274,10 @@
         <v>0.584</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.9239615201950073</v>
+        <v>0.9239615559577942</v>
       </c>
       <c r="R10" t="n">
-        <v>0.7539807600975037</v>
+        <v>0.7539807779788971</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1307,19 +1313,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7067408561706543</v>
+        <v>0.7550563812255859</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -1327,11 +1333,11 @@
       <c r="J11" t="inlineStr">
         <is>
           <t>Diagnosis / Impression:
-The lung fields appear to be clear on the chest X-ray [R1-IMAGE], [R2-IMAGE]. Supporting Evidence:
-- The lung fields appear to be clear on the chest X-ray, indicating no obvious signs of abnormalities or opacities in the lung fields [R1-IMAGE]. - The lung fields appear to be clear on the chest X-ray, showing no obvious signs of issues within the lung tissue itself [R2-IMAGE] [R1]. - The chest radiographs show normally inflated lungs without evidence of focal airspace disease, pleural effusion, or pneumothorax [R2]. Supporting Evidence:
+The lung fields appear to be clear on the chest X-ray [R2]. Supporting Evidence:
+- The lung fields appear to be clear on the chest X-ray, indicating no obvious signs of abnormalities or opacities in the lung fields [R2-IMAGE]. - The lung fields appear to be clear on the chest X-ray, which is generally a positive finding [R2-IMAGE] [R1]. - The lungs are normally inflated without evidence of focal airspace disease, pleural effusion, or pneumothorax on the chest radiograph [R2]. - Stable calcified granuloma within the right upper lung is noted, but it does not indicate an acute process [R2]. Supporting Evidence:
 - Imaging findings do not demonstrate acute pathology. [R1]
 Next Steps / Recommendations:
-- Further evaluation and clinical correlation may be needed to assess the patient's overall health and identify any potential underlying concerns [R1-IMAGE], [R2-IMAGE]. - The patient's clinical history and symptoms should be taken into consideration for further evaluation and management [R2].</t>
+- Further evaluation and clinical correlation may be needed to assess the patient's overall health and identify any potential underlying concerns [R1-IMAGE]. - The patient's clinical history and symptoms should be taken into consideration for further evaluation and management [R2-IMAGE] [R1].</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1351,10 +1357,10 @@
         <v>0.596</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.9120222330093384</v>
+        <v>0.9265169143676757</v>
       </c>
       <c r="R11" t="n">
-        <v>0.7540111165046692</v>
+        <v>0.7612584571838379</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1390,19 +1396,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7749761343002319</v>
+        <v>0.80552738904953</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -1412,15 +1418,15 @@
           <t>Diagnosis / Impression:
 The chest X-ray appears normal. [R1] [R2]
 Supporting Evidence:
-- Cardiomediastinal silhouette and pulmonary vasculature are within normal limits. [R2]
-- Lungs are clear. [R2]
-- No pneumothorax or pleural effusion. [R2]
-- No acute osseous findings. [R2]
+- The chest X-ray findings show that the cardiomediastinal silhouette and pulmonary vasculature are within normal limits. [R1]
+- The lungs are clear, and there is no pneumothorax or pleural effusion. [R1]
+- The chest X-ray images suggest that the patient's lungs and surrounding structures appear healthy and without any significant concerns. [R2-IMAGE]
+- A normal chest X-ray does not necessarily rule out all possible conditions or diseases, and further evaluation and clinical correlation may be needed [R1]. [R1-IMAGE] [R2-IMAGE]
 Supporting Evidence:
-- Imaging findings do not demonstrate acute pathology. [R1]
+- Imaging findings do not demonstrate acute pathology [R1]. [R1]
 Next Steps / Recommendations:
-- Further evaluation and clinical correlation may be needed to assess the patient's overall health and identify any potential concerns. [R1-IMAGE] [R2-IMAGE]
-- Further tests may still be needed depending on the patient's symptoms and clinical history [R1]. [R1-IMAGE] [R2-IMAGE] [R1].</t>
+- Further evaluation and clinical correlation may be needed to assess the patient's overall health and identify any underlying issues that may not be visible on the x-ray. [Rx]
+- The patient's symptoms of fatigue, weakness, and anterior chest pain should be further investigated to determine their cause [R1]. [Rx] [R1].</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1440,10 +1446,10 @@
         <v>0.593</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.9324928522109985</v>
+        <v>0.9416582167148589</v>
       </c>
       <c r="R12" t="n">
-        <v>0.7627464261054993</v>
+        <v>0.7673291083574294</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1479,7 +1485,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -1488,10 +1494,10 @@
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0.857</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8489422202110291</v>
+        <v>0.8335308432579041</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -1500,10 +1506,10 @@
         <is>
           <t>Diagnosis / Impression:
 No acute cardiopulmonary abnormality [R1]. Supporting Evidence:
-- The lungs are clear bilaterally [R1]. - Cardiac and mediastinal silhouettes are normal [R1]. - Pulmonary vasculature is normal [R1]. - No pneumothorax or pleural effusion [R1]. Supporting Evidence:
+- The chest X-ray appears to be normal, with no visible abnormalities [R1-IMAGE]. - The lungs are clear bilaterally, with no pneumothorax or pleural effusion [R1]. - The cardiac and mediastinal silhouettes are normal, and the pulmonary vasculature is normal [R1]. - A normal chest X-ray does not necessarily rule out all possible conditions, and further evaluation may be needed depending on the patient's clinical history and symptoms [R1-IMAGE] [R1]. Supporting Evidence:
 - Imaging findings do not demonstrate acute pathology. [R1]
 Next Steps / Recommendations:
-- Further evaluation may be needed depending on the patient's clinical history and symptoms [R1-IMAGE, R2-IMAGE]. - Consider additional diagnostic tests or clinical assessments to rule out possible conditions [Rx] [R1].</t>
+- Further evaluation may be needed depending on the patient's clinical history and symptoms [Rx].</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1523,10 +1529,10 @@
         <v>0.61</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.8974826335906982</v>
+        <v>0.9500592529773711</v>
       </c>
       <c r="R13" t="n">
-        <v>0.7537413167953491</v>
+        <v>0.7800296264886856</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1562,7 +1568,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -1574,7 +1580,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8203461766242981</v>
+        <v>0.8041225075721741</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1582,11 +1588,11 @@
       <c r="J14" t="inlineStr">
         <is>
           <t>Diagnosis / Impression:
-The chest X-ray does not show cardiomegaly or an abnormal cardiac silhouette [R1-IMAGE], [R2-IMAGE]. Supporting Evidence:
-- The chest x-ray does not show any signs of cardiomegaly or an abnormal cardiac silhouette [R1-IMAGE]. - The chest x-ray does not show any signs of cardiomegaly or an abnormal cardiac silhouette [R2-IMAGE] [R1]. - The cardiac silhouette is within normal limits on the chest radiograph [R1]. - Mediastinal contours are within normal limits on the chest radiograph [R1]. Supporting Evidence:
+The chest X-ray does not show signs of cardiomegaly or an abnormal cardiac silhouette [R1-IMAGE], [R2-IMAGE]. Supporting Evidence:
+• The cardiac silhouette is within normal limits on the chest radiograph from XXXX, XXXX [R1]. • The mediastinal contours are within normal limits, indicating no signs of cardiomegaly [R1]. • The chest x-ray does not show any signs of cardiomegaly or an abnormal cardiac silhouette [R1-IMAGE], [R2-IMAGE] [R1]. Supporting Evidence:
 - Imaging findings do not demonstrate acute pathology. [R1]
 Next Steps / Recommendations:
-- Further evaluation with other diagnostic modalities is necessary to confirm the absence of cardiomegaly or abnormal cardiac silhouette [Rx]. - The patient's symptoms and medical history should be thoroughly assessed to determine the cause of the borderline enlargement of the cardiac silhouette [Rx] [R1].</t>
+• Further evaluation with echocardiogram or other diagnostic tests is not indicated based on the chest X-ray findings [Rx]. • Clinical assessment and history should be reviewed to determine the cause of the borderline enlargement of the cardiac silhouette noted on the initial chest radiograph [Rx] [R1].</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1606,10 +1612,10 @@
         <v>0.637</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.9461038708686829</v>
+        <v>0.9412367522716522</v>
       </c>
       <c r="R14" t="n">
-        <v>0.7915519354343414</v>
+        <v>0.789118376135826</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1645,13 +1651,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1689,10 +1695,10 @@
         <v>0.615</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.927559494972229</v>
+        <v>0.9275594711303711</v>
       </c>
       <c r="R15" t="n">
-        <v>0.7712797474861145</v>
+        <v>0.7712797355651855</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1728,7 +1734,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -1740,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5791963338851929</v>
+        <v>0.6154435873031616</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1748,11 +1754,11 @@
       <c r="J16" t="inlineStr">
         <is>
           <t>Diagnosis / Impression:
-Pleural effusion is not visible on the chest X-ray [R1], [R2], [R1-IMAGE], [R2-IMAGE]. Supporting Evidence:
-- The chest x-ray findings in R1 and R2 do not show any visible pleural effusion [R1], [R2]. - The images R1-IMAGE and R2-IMAGE also confirm the absence of visible pleural effusion [R1-IMAGE], [R2-IMAGE] [R1]. - The lungs are clear, and there is no pneumothorax or pleural effusion in R1 [R1]. Supporting Evidence:
+Pleural effusion is not visible on the chest X-ray [R1], [R2]. Supporting Evidence:
+- The chest X-ray in [R1] does not show any visible pleural effusion [R1-IMAGE]. - The chest x-ray in [R2] does not show any visible signs of pleural effusion [R2-IMAGE]. - The lungs are clear in [R1], indicating no visible pleural effusion [R1]. - No pneumothorax or pleural effusion is noted in [R1], further supporting the absence of pleural effusion [R1]. Supporting Evidence:
 - Imaging findings do not demonstrate acute pathology. [R1]
 Next Steps / Recommendations:
-- Further diagnostic testing is not indicated for pleural effusion based on the chest X-ray findings [Rx]. - Continue to evaluate the patient's symptoms and consider other potential causes of dyspnea [Rx] [R1].</t>
+- Further diagnostic testing, such as ultrasound or CT scan, may be necessary to confirm the absence of pleural effusion [Rx]. - Clinical evaluation and patient history should be reviewed to determine the cause of the patient's symptoms, such as dyspnea [Rx] [R1].</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1772,10 +1778,10 @@
         <v>0.576</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.8737589120864868</v>
+        <v>0.8846330761909484</v>
       </c>
       <c r="R16" t="n">
-        <v>0.7248794560432434</v>
+        <v>0.7303165380954741</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1898,19 +1904,19 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7987508773803711</v>
+        <v>0.7987506985664368</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -1942,10 +1948,10 @@
         <v>0.656</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.9396252632141113</v>
+        <v>0.939625209569931</v>
       </c>
       <c r="R18" t="n">
-        <v>0.7978126316070557</v>
+        <v>0.7978126047849655</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -1981,7 +1987,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -1993,7 +1999,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8768997192382812</v>
+        <v>0.8466475605964661</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -2005,7 +2011,7 @@
 - The chest X-ray shows a heart size within normal limits [R1]. - No focal alveolar consolidation, no definite pleural effusion seen [R1]. - No typical findings of pulmonary edema [R1]. - No pneumothorax [R1]. Supporting Evidence:
 - Imaging findings do not demonstrate acute pathology. [R1]
 Next Steps / Recommendations:
-- Further evaluation is needed to determine the cause of the patient's pain [Rx]. - Additional imaging or diagnostic tests may be necessary to rule out other potential causes of the patient's symptoms [Rx] [R1].</t>
+- Further evaluation is needed to determine the cause of the patient's pain [Rx]. - Additional diagnostic tests, such as a CT scan or echocardiogram, may be necessary to further assess the patient's cardiopulmonary status [Rx] [R1].</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -2025,10 +2031,10 @@
         <v>0.592</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.9630699157714844</v>
+        <v>0.9539942681789397</v>
       </c>
       <c r="R19" t="n">
-        <v>0.7775349578857422</v>
+        <v>0.7729971340894699</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2064,7 +2070,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -2076,7 +2082,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0.806704580783844</v>
+        <v>0.5643443465232849</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -2085,10 +2091,10 @@
         <is>
           <t>Diagnosis / Impression:
 The chest X-ray does not indicate heart enlargement [R1]. Supporting Evidence:
-- The chest X-ray shows a normal heart size [R1]. - The image description of the chest X-ray from [R1-IMAGE] and [R2-IMAGE] also confirms no signs of heart enlargement [R1]. - The absence of focal airspace disease or effusion on the chest X-ray suggests no acute cardiopulmonary process [R1]. - The comparison with CT chest angiography shows stable tortuosity of the thoracic aorta, indicating no acute change [R1]. Supporting Evidence:
+- The chest X-ray shows a normal heart size [R1]. - The chest X-ray does not show any signs of heart enlargement [R1-IMAGE] [R1]. - The second chest X-ray also does not show any signs of heart enlargement [R2-IMAGE] [R1]. - However, it is essential to note that image descriptions are supporting only and not primary diagnostic proof [R2]. Supporting Evidence:
 - Imaging findings do not demonstrate acute pathology. [R1]
 Next Steps / Recommendations:
-- Further evaluation with echocardiogram or other cardiac imaging may be necessary to confirm the absence of heart enlargement [Rx]. - The patient's preoperative evaluation for abdominal aortic aneurysm repair should proceed as planned, with close monitoring of cardiac function [Rx] [R1].</t>
+- Consultation with a healthcare professional is recommended for a proper evaluation of the chest X-ray [Rx]. - Further diagnostic testing may be necessary to confirm the absence of heart enlargement [Rx] [R1].</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -2108,10 +2114,10 @@
         <v>0.589</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.9420113563537598</v>
+        <v>0.8693033039569854</v>
       </c>
       <c r="R20" t="n">
-        <v>0.7655056781768799</v>
+        <v>0.7291516519784926</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2147,7 +2153,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -2159,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6993586421012878</v>
+        <v>0.702528715133667</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -2171,7 +2177,7 @@
 • The lungs are well expanded and clear [R1]. • There are no focal air space opacities [R1]. • The lung fields appear to be clear on the chest x-ray [R1-IMAGE] [R1]. • The lung fields appear to be clear on the chest x-ray [R2-IMAGE] [R1]. Supporting Evidence:
 - Imaging findings do not demonstrate acute pathology. [R1]
 Next Steps / Recommendations:
-• Further evaluation and clinical correlation may be needed to assess the patient's overall health and identify any potential concerns [R1-IMAGE]. • Further evaluation may be needed depending on the patient's clinical history and symptoms [R2-IMAGE] [R1].</t>
+• Further evaluation and clinical correlation may be needed to assess the patient's overall health and identify any potential concerns [R1-IMAGE, R2-IMAGE]. • Consider additional diagnostic tests or assessments to rule out underlying conditions [Rx] [R1].</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -2191,10 +2197,10 @@
         <v>0.594</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.909807562828064</v>
+        <v>0.9107586145401001</v>
       </c>
       <c r="R21" t="n">
-        <v>0.7519037814140319</v>
+        <v>0.75237930727005</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2230,7 +2236,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -2242,7 +2248,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0.6129778623580933</v>
+        <v>0.5247085690498352</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -2252,14 +2258,13 @@
           <t>Diagnosis / Impression:
 The chest X-ray appears normal. [R1]
 Supporting Evidence:
-- There are no focal consolidations or pleural effusions. [R1]
-- The chest X-ray is described as appearing normal, with no visible signs of abnormalities or issues. [R1-IMAGE]
-- A normal chest X-ray does not necessarily rule out all possible conditions or diseases, but it is a good starting point for further evaluation [R1]. [R1-IMAGE]
+- The chest X-ray does not show any focal consolidations or pleural effusions. [R1]
+- The chest X-ray is described as normal in both image descriptions. [R1-IMAGE] and [R2-IMAGE]
 Supporting Evidence:
 - Imaging findings do not demonstrate acute pathology [R1]. [R1]
 Next Steps / Recommendations:
-- Further evaluation and clinical correlation may be needed to assess the patient's overall health and identify any underlying issues that may not be visible on the x-ray. [Rx]
-- The patient's confusion and possible head injury should be further investigated through other diagnostic means, such as a CT scan or physical examination [R1]. [Rx] [R1].</t>
+- Further evaluation and clinical correlation may be needed to assess the patient's overall health and identify any underlying concerns. [R1-IMAGE] and [R2-IMAGE]
+- The patient's clinical history and symptoms should be taken into account when determining the next steps [R1]. [R2-IMAGE] [R1].</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -2279,10 +2284,10 @@
         <v>0.584</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.8838933706283569</v>
+        <v>0.8574125707149505</v>
       </c>
       <c r="R22" t="n">
-        <v>0.7339466853141785</v>
+        <v>0.7207062853574753</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2318,19 +2323,19 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0.7579171657562256</v>
+        <v>0.7541360259056091</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -2338,11 +2343,11 @@
       <c r="J23" t="inlineStr">
         <is>
           <t>Diagnosis / Impression:
-No acute cardiopulmonary abnormality [R2]. Supporting Evidence:
-- The lungs are clear, and without focal air space opacity [R2]. - The cardiomediastinal silhouette is normal in size and contour, and stable [R2]. - The chest X-ray appears to be normal, with no visible abnormalities [R1-IMAGE] [R1]. Supporting Evidence:
+No acute cardiopulmonary abnormality [R1]. Supporting Evidence:
+- The lungs are clear, and without focal air space opacity [R1]. - The cardiomediastinal silhouette is normal in size and contour, and stable [R1]. - The chest X-ray appears to be normal, with no visible abnormalities [R1-IMAGE] [R1]. Supporting Evidence:
 - Imaging findings do not demonstrate acute pathology. [R1]
 Next Steps / Recommendations:
-- Further evaluation may be needed depending on the patient's clinical history and symptoms [R1-IMAGE]. - No immediate action is required based on the provided chest X-ray findings [R2].</t>
+- Further evaluation may be needed depending on the patient's clinical history and symptoms [R1-IMAGE]. - No immediate action is required based on the provided chest X-ray findings [R1].</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -2362,10 +2367,10 @@
         <v>0.601</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.9273751378059387</v>
+        <v>0.9262408077716827</v>
       </c>
       <c r="R23" t="n">
-        <v>0.7641875689029693</v>
+        <v>0.7636204038858414</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2401,7 +2406,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -2413,7 +2418,7 @@
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.5763466358184814</v>
+        <v>0.5788339972496033</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -2421,11 +2426,11 @@
       <c r="J24" t="inlineStr">
         <is>
           <t>Diagnosis / Impression:
-The chest X-ray does not show cardiomegaly or an abnormal cardiac silhouette [R1-IMAGE], [R2-IMAGE]. Supporting Evidence:
-• The heart size appears within normal limits on the chest X-ray [R1]. • The lungs are free of focal airspace disease, indicating no acute respiratory issues that could be related to cardiomegaly [R1]. • The chest X-ray does not show any signs of cardiomegaly or an abnormal cardiac silhouette, supporting the normal heart size and shape [R1-IMAGE], [R2-IMAGE] [R1]. • No pleural effusion or pneumothorax is seen on the chest X-ray, which could be a sign of cardiomegaly-related complications [R1]. Supporting Evidence:
+The chest X-ray does not show signs of cardiomegaly or an abnormal cardiac silhouette [R1-IMAGE], [R2-IMAGE]. Supporting Evidence:
+- The heart size appears within normal limits on the chest X-ray [R1]. - The lungs are free of focal airspace disease, indicating no acute respiratory issues that could be related to cardiomegaly [R1]. - The normal cardiac silhouette on the chest X-ray suggests that the heart is within normal size and shape [R1-IMAGE], [R2-IMAGE] [R1]. Supporting Evidence:
 - Imaging findings do not demonstrate acute pathology. [R1]
 Next Steps / Recommendations:
-• Further evaluation is not necessary for cardiomegaly or abnormal cardiac silhouette based on the chest X-ray findings [Rx]. • Continue with preoperative evaluation and preparation for surgery [Rx] [R1].</t>
+- Further evaluation is not necessary for cardiomegaly or abnormal cardiac silhouette based on the chest X-ray findings [Rx]. - The patient can proceed with preoperative evaluation for surgery as planned [Rx] [R1].</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -2445,10 +2450,10 @@
         <v>0.536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.8729040026664734</v>
+        <v>0.873650199174881</v>
       </c>
       <c r="R24" t="n">
-        <v>0.7044520013332367</v>
+        <v>0.7048250995874406</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2484,7 +2489,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -2496,7 +2501,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0.7680578827857971</v>
+        <v>0.7680580019950867</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -2528,10 +2533,10 @@
         <v>0.5669999999999999</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.9304173588752747</v>
+        <v>0.930417400598526</v>
       </c>
       <c r="R25" t="n">
-        <v>0.7487086794376373</v>
+        <v>0.748708700299263</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2567,19 +2572,19 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0.5814964771270752</v>
+        <v>0.6283779740333557</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -2588,10 +2593,10 @@
         <is>
           <t>Diagnosis / Impression:
 Pleural effusion is not visible on the chest X-ray [R1-IMAGE], [R2-IMAGE]. Supporting Evidence:
-- The chest X-ray in [R1] does not show any visible signs of pleural effusion [R1-IMAGE]. - The chest X-ray in [R2] does not show any visible signs of pleural effusion [R2-IMAGE]. - The radiology report in [R1] mentions moderate left pleural effusion and small right pleural effusion, but this is not supported by the X-ray images [R1-IMAGE]. - The radiology report in [R2] mentions bilateral pleural effusions, left greater than right, but this is not supported by the X-ray images [R2-IMAGE]. Supporting Evidence:
+- The chest X-ray in [R1] does not show any visible pleural effusion [R1-IMAGE]. - The chest X-ray in [R2] does not show any visible pleural effusion [R2-IMAGE]. - The report in [R1] mentions moderate left pleural effusion and small right pleural effusion, but this is not visible on the X-ray [R1-IMAGE]. - The report in [R2] mentions moderate left pleural effusion and small right pleural effusion, but this is not visible on the X-ray [R2-IMAGE]. Supporting Evidence:
 - Imaging findings do not demonstrate acute pathology. [R1]
 Next Steps / Recommendations:
-- Further diagnostic testing, such as ultrasound or CT scan, is recommended to confirm the presence of pleural effusion [Rx]. - Clinical evaluation and assessment of symptoms are necessary to determine the cause and management of the pleural effusion [Rx] [R1].</t>
+- Further imaging or diagnostic tests are needed to confirm the presence of pleural effusion [Rx]. - Follow-up with the patient to ensure complete resolution of the left lower lobe airspace disease and bilateral pleural effusions [Rx] [R1].</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -2611,10 +2616,10 @@
         <v>0.586</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.8744489550590515</v>
+        <v>0.8885133922100067</v>
       </c>
       <c r="R26" t="n">
-        <v>0.7302244775295257</v>
+        <v>0.7372566961050033</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2650,19 +2655,19 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.6495643258094788</v>
+        <v>0.649564266204834</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -2694,10 +2699,10 @@
         <v>0.5629999999999999</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.894869327545166</v>
+        <v>0.8948692798614502</v>
       </c>
       <c r="R27" t="n">
-        <v>0.728934663772583</v>
+        <v>0.728934639930725</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2733,19 +2738,19 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6786187887191772</v>
+        <v>0.6786187291145325</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
@@ -2777,10 +2782,10 @@
         <v>0.572</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.9035856127738953</v>
+        <v>0.9035856187343597</v>
       </c>
       <c r="R28" t="n">
-        <v>0.7377928063869477</v>
+        <v>0.7377928093671798</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -2816,19 +2821,19 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.7718093395233154</v>
+        <v>0.8143529295921326</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
@@ -2837,10 +2842,10 @@
         <is>
           <t>Diagnosis / Impression:
 Multifocal scattered bibasilar patchy and ground-glass pulmonary opacities are noted, most consistent with atelectasis/infiltrate [R2]. Supporting Evidence:
-- Bilateral patchy pulmonary opacities are observed, indicating possible lung involvement [R2]. - Interval improvement in left base consolidative opacity suggests a potential response to treatment or resolution of the underlying condition [R2]. - Pulmonary vascular congestion is again noted, indicating possible cardiac or respiratory compromise [R2]. - No evidence of pneumothorax or large pleural effusions is observed, ruling out these potential causes of respiratory distress [R2]. Supporting Evidence:
+- Bilateral patchy pulmonary opacities are observed on the chest X-ray, indicating possible lung abnormalities [R2]. - Interval improvement in left base consolidative opacity is noted, suggesting a possible resolution of the condition [R2]. - Pulmonary vascular congestion is again noted, indicating possible heart failure or other cardiac issues [R2]. - No evidence of pneumothorax or large pleural effusions is observed, ruling out these conditions [R2]. Supporting Evidence:
 - Imaging findings do not demonstrate acute pathology. [R1]
 Next Steps / Recommendations:
-- Further evaluation with imaging or laboratory tests is necessary to determine the underlying cause of the pulmonary opacities and vascular congestion [Rx]. - Clinical correlation with the patient's symptoms, including shortness of breath, is essential to guide further management [Rx] [R1].</t>
+- Further evaluation and consultation with a healthcare professional are necessary to determine the cause and appropriate treatment for the patient's respiratory symptoms [Rx].</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
@@ -2860,10 +2865,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.9315428137779236</v>
+        <v>0.9443058788776397</v>
       </c>
       <c r="R29" t="n">
-        <v>0.7457714068889618</v>
+        <v>0.7521529394388199</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -2899,7 +2904,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
@@ -2911,7 +2916,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0.4483364224433899</v>
+        <v>0.5216942429542542</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -2919,11 +2924,11 @@
       <c r="J30" t="inlineStr">
         <is>
           <t>Diagnosis / Impression:
-There is insufficient evidence to indicate heart enlargement [R1, R2]. Supporting Evidence:
-- The X-ray findings from [R1] do not show any signs of heart enlargement, as stated in the image description [R1-IMAGE]. - The X-ray findings from [R2] are not provided, but the image description states that the chest X-ray does not show any signs of heart enlargement [R2-IMAGE]. Supporting Evidence:
+The chest X-ray does not indicate heart enlargement [R2]. Supporting Evidence:
+- The chest X-ray does not show any signs of heart enlargement [R2-IMAGE]. - The X-ray R1 findings do not provide conclusive evidence of heart enlargement [R1]. Supporting Evidence:
 - Imaging findings do not demonstrate acute pathology. [R1]
 Next Steps / Recommendations:
-- Obtain additional diagnostic tests to confirm or rule out heart enlargement [Rx]. - Consider consulting a cardiologist for further evaluation and management [Rx] [R1].</t>
+- Further evaluation and additional tests, such as an echocardiogram or cardiac MRI, may be necessary to assess the patient's heart condition more accurately [R2]. - Insufficient evidence [Rx] to determine the exact cause of the borderline heart size observed in X-ray R1 [R1].</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -2943,10 +2948,10 @@
         <v>0.546</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.8345009088516235</v>
+        <v>0.8565082728862762</v>
       </c>
       <c r="R30" t="n">
-        <v>0.6902504544258118</v>
+        <v>0.7012541364431382</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -2982,7 +2987,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
@@ -2994,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.7027217745780945</v>
+        <v>0.7283556461334229</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
@@ -3002,11 +3007,11 @@
       <c r="J31" t="inlineStr">
         <is>
           <t>Diagnosis / Impression:
-The lung fields appear to be clear on the chest X-ray [R1]. Supporting Evidence:
-- The lungs are clear without focal consolidation, effusion, or pneumothorax [R1]. - The lung fields appear to be clear on the chest x-ray [R1-IMAGE] [R1]. - The chest x-ray appears to show clear lung fields [R2-IMAGE] [R1]. Supporting Evidence:
+The lung fields are clear on the chest X-ray [R1]. Supporting Evidence:
+- The chest x-ray findings show lungs are clear without focal consolidation, effusion, or pneumothorax [R1]. - The lung fields appear to be clear on the chest x-ray [R2-IMAGE] [R1]. - A normal chest x-ray suggests that there are no visible signs of abnormalities or issues in the lungs at the time the image was taken [R1-IMAGE] [R1]. - The lung fields are clear, indicating no obvious signs of abnormalities or opacities in the lung tissue [R2-IMAGE] [R1]. Supporting Evidence:
 - Imaging findings do not demonstrate acute pathology. [R1]
 Next Steps / Recommendations:
-- Further evaluation may be needed depending on the patient's clinical history and symptoms [R1-IMAGE], [R2-IMAGE]. - Consider reviewing the patient's clinical history and symptoms to determine the need for further evaluation [Rx] [R1].</t>
+- Further evaluation and clinical correlation may be needed to assess the patient's overall health and identify any potential issues that may not be visible on the x-ray [Rx]. - The patient's clinical history and symptoms should be taken into consideration for further evaluation and management [Rx] [R1].</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -3026,10 +3031,10 @@
         <v>0.582</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.9108165502548218</v>
+        <v>0.9185066938400268</v>
       </c>
       <c r="R31" t="n">
-        <v>0.7464082751274108</v>
+        <v>0.7502533469200134</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3065,19 +3070,19 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0.5810710191726685</v>
+        <v>0.5741540193557739</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
@@ -3088,13 +3093,13 @@
 The chest X-ray appears to be normal. [R1-IMAGE], [R2-IMAGE]
 Supporting Evidence:
 - The chest X-ray in [R1] shows no visible signs of abnormalities or issues. [R1-IMAGE]
-- The chest X-ray in [R2] also shows no visible abnormalities or signs of disease. [R2-IMAGE]
+- The chest X-ray in [R2] also shows no visible signs of abnormalities or issues. [R2-IMAGE]
 - A normal chest X-ray does not necessarily rule out all possible conditions or diseases [R1]. [R1-IMAGE], [R2-IMAGE]
 Supporting Evidence:
 - Imaging findings do not demonstrate acute pathology [R1]. [R1]
 Next Steps / Recommendations:
 - Further evaluation and tests may still be needed depending on the patient's symptoms and clinical history. [R1-IMAGE], [R2-IMAGE]
-- Clinical correlation may be needed to assess the patient's overall health and identify any underlying concerns [R1]. [R1-IMAGE], [R2-IMAGE] [R1].</t>
+- Clinical correlation may be needed to assess the patient's overall health and identify any underlying issues that may not be visible on the x-ray [R1]. [R1-IMAGE], [R2-IMAGE] [R1].</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -3114,10 +3119,10 @@
         <v>0.5620000000000001</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.8743212819099426</v>
+        <v>0.8722462058067322</v>
       </c>
       <c r="R32" t="n">
-        <v>0.7181606409549713</v>
+        <v>0.7171231029033661</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3153,7 +3158,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>
@@ -3165,7 +3170,7 @@
         <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0.6622316241264343</v>
+        <v>0.6662850975990295</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
@@ -3174,10 +3179,10 @@
         <is>
           <t>Diagnosis / Impression:
 Mild blunting of right costophrenic angle [R1]. Supporting Evidence:
-- The chest X-ray appears to be normal, with no visible abnormalities [R2-IMAGE]. - However, the presence of mild blunting of right costophrenic angle suggests a possible abnormality [R1]. - A normal chest X-ray does not necessarily rule out all possible conditions, and further evaluation may be needed depending on the patient's clinical history and symptoms [R2-IMAGE] [R1]. - The lungs are otherwise grossly clear, indicating no apparent signs of lung disease [R1]. Supporting Evidence:
+- The chest X-ray appears to be normal, with no visible abnormalities [R2-IMAGE]. - However, the presence of mild blunting of right costophrenic angle suggests a possible abnormality [R1]. - The lungs are otherwise grossly clear, indicating no acute disease [R1]. - A normal chest X-ray does not necessarily rule out all possible conditions, and further evaluation may be needed depending on the patient's clinical history and symptoms [R2]. Supporting Evidence:
 - Imaging findings do not demonstrate acute pathology. [R1]
 Next Steps / Recommendations:
-- Further evaluation is needed to determine the cause of mild blunting of right costophrenic angle [Rx]. - Additional imaging or diagnostic tests may be necessary to rule out other possible conditions [Rx] [R1].</t>
+- Further evaluation of the patient's clinical history and symptoms is necessary to determine the cause of mild blunting of right costophrenic angle [Rx]. - Additional imaging or diagnostic tests may be required to rule out other possible conditions [Rx] [R1].</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -3197,10 +3202,10 @@
         <v>0.611</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.8986694812774658</v>
+        <v>0.8998855292797088</v>
       </c>
       <c r="R33" t="n">
-        <v>0.7548347406387329</v>
+        <v>0.7554427646398544</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3236,7 +3241,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
         <v>1</v>
@@ -3248,7 +3253,7 @@
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6567386388778687</v>
+        <v>0.641172468662262</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
@@ -3256,11 +3261,11 @@
       <c r="J34" t="inlineStr">
         <is>
           <t>Diagnosis / Impression:
-The chest X-ray does not show signs of cardiomegaly or an abnormal cardiac silhouette [R1-IMAGE], [R2-IMAGE]. Supporting Evidence:
-• Cardiac and mediastinal contours are within normal limits on the chest X-ray [R1]. • The lungs are clear, indicating no active pulmonary disease [R1]. • Bony structures are intact, suggesting no evidence of bone-related abnormalities [R1]. • The absence of cardiomegaly or an abnormal cardiac silhouette on the chest X-ray is consistent with a normal heart size and shape [R1-IMAGE], [R2-IMAGE] [R1]. Supporting Evidence:
+The chest X-ray does not show cardiomegaly or an abnormal cardiac silhouette [R1-IMAGE], [R2-IMAGE]. Supporting Evidence:
+- The cardiac and mediastinal contours are within normal limits on the chest X-ray [R1]. - The lungs are clear, indicating no signs of pulmonary disease [R1]. - The chest X-ray does not show any signs of cardiomegaly or an abnormal cardiac silhouette [R1-IMAGE], [R2-IMAGE] [R1]. - Bony structures are intact, suggesting no evidence of bone-related abnormalities [R1]. Supporting Evidence:
 - Imaging findings do not demonstrate acute pathology. [R1]
 Next Steps / Recommendations:
-• Further evaluation is not necessary based on the chest X-ray findings [Rx]. • Clinical assessment and other diagnostic tests may be required to rule out other potential cardiac or pulmonary conditions [Rx] [R1].</t>
+- Further evaluation is not necessary based on the chest X-ray findings [Rx]. - Continue to monitor the patient's cardiac health as indicated by the clinical history [Rx] [R1].</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -3280,10 +3285,10 @@
         <v>0.599</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.8970215916633606</v>
+        <v>0.8923517405986785</v>
       </c>
       <c r="R34" t="n">
-        <v>0.7480107958316803</v>
+        <v>0.7456758702993392</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3319,19 +3324,19 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.7059437036514282</v>
+        <v>0.7059436440467834</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -3363,10 +3368,10 @@
         <v>0.601</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.9117830991744995</v>
+        <v>0.9117830932140349</v>
       </c>
       <c r="R35" t="n">
-        <v>0.7563915495872497</v>
+        <v>0.7563915466070175</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3402,7 +3407,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
         <v>1</v>
@@ -3414,7 +3419,7 @@
         <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0.6232579350471497</v>
+        <v>0.6128427386283875</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
@@ -3422,11 +3427,11 @@
       <c r="J36" t="inlineStr">
         <is>
           <t>Diagnosis / Impression:
-Pleural effusion is not visible on the chest X-ray [R1], [R2], [R1-IMAGE], [R2-IMAGE]. Supporting Evidence:
-- The chest X-ray does not show any visible anatomical findings related to pleural effusion [R1-IMAGE]. - The chest X-ray does not show any visible pleural effusion [R2-IMAGE] [R1]. - There is no focal airspace opacity, pleural effusion, or pneumothorax on the chest X-ray [R1]. - The absence of pleural effusion is consistent with the radiographic findings [R1], [R2]. Supporting Evidence:
+Pleural effusion is not visible on the chest X-ray [R1], [R2]. Supporting Evidence:
+- The chest x-ray does not show any visible pleural effusion [R1-IMAGE]. - The chest x-ray does not show any visible signs of pleural effusion [R2-IMAGE] [R1]. - There is no focal airspace opacity, pleural effusion, or pneumothorax on the chest X-ray [R1]. - The absence of pleural effusion is consistent with the radiographic findings [R1]. Supporting Evidence:
 - Imaging findings do not demonstrate acute pathology. [R1]
 Next Steps / Recommendations:
-- Further diagnostic testing, such as ultrasound or CT scan, may be necessary to confirm the absence of pleural effusion [Rx]. - Clinical evaluation and patient history should be considered to rule out other potential causes of pleural effusion [Rx] [R1].</t>
+- Further diagnostic testing (e. g [R1]. , ultrasound, CT scan) may be necessary to confirm the absence of pleural effusion [Rx] [R1]. - Clinical evaluation and patient history should be considered to rule out other potential causes of pleural effusion [Rx] [R1].</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -3446,10 +3451,10 @@
         <v>0.605</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.8869773745536804</v>
+        <v>0.8838528215885162</v>
       </c>
       <c r="R36" t="n">
-        <v>0.7459886872768402</v>
+        <v>0.7444264107942581</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3485,19 +3490,19 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0.7735251188278198</v>
+        <v>0.7766243815422058</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -3505,8 +3510,8 @@
       <c r="J37" t="inlineStr">
         <is>
           <t>Diagnosis / Impression:
-The chest X-ray does not show lung consolidation or opacities [R1], [R2]. Supporting Evidence:
-- The lungs are clear bilaterally on the two-view chest radiograph [R1]. - No evidence of focal consolidation, pneumothorax, or pleural effusion is observed on the chest X-ray [R1]. - The chest X-ray does not show any lung consolidation or opacities [R1-IMAGE], [R2-IMAGE] [R1]. - The absence of lung consolidation or opacities on the chest X-ray suggests that there are no visible signs of lung tissue that appears denser or more solid than normal [R2-IMAGE] [R1]. Supporting Evidence:
+The chest X-ray does not show any lung consolidation or opacities [R1], [R2]. Supporting Evidence:
+- The lungs are clear bilaterally on the two-view chest radiograph [R1]. - No evidence of focal consolidation, pneumothorax, or pleural effusion is observed on the chest X-ray [R1]. - The chest X-ray findings are consistent with no acute cardiopulmonary abnormality [R1]. - The chest X-ray images [R1-IMAGE], [R2-IMAGE] also do not show any lung consolidation or opacities [R1]. Supporting Evidence:
 - Imaging findings do not demonstrate acute pathology. [R1]
 Next Steps / Recommendations:
 - Further evaluation is not required for lung consolidation or opacities based on the chest X-ray findings [Rx]. - The patient's chest pain may require further investigation to determine the underlying cause [Rx] [R1].</t>
@@ -3529,10 +3534,10 @@
         <v>0.616</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.9320574998855591</v>
+        <v>0.9329873144626617</v>
       </c>
       <c r="R37" t="n">
-        <v>0.7740287499427796</v>
+        <v>0.7744936572313308</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3568,7 +3573,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
@@ -3580,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0.645607590675354</v>
+        <v>0.6456075310707092</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -3612,10 +3617,10 @@
         <v>0.536</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.8936822414398193</v>
+        <v>0.8936822593212127</v>
       </c>
       <c r="R38" t="n">
-        <v>0.7148411207199097</v>
+        <v>0.7148411296606063</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3651,19 +3656,19 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0.7092854380607605</v>
+        <v>0.7339878678321838</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
@@ -3675,7 +3680,7 @@
 - The lungs are clear with no pneumothorax or pleural effusion [R1]. - The heart and mediastinum are within normal limits [R1]. - Bony structures are intact [R1]. Supporting Evidence:
 - Imaging findings do not demonstrate acute pathology. [R1]
 Next Steps / Recommendations:
-- Further evaluation and consultation with a healthcare professional are necessary to determine the cause of the widened mediastinum, cardiomegaly, and an enlarged pulmonary artery [R1-IMAGE]. - Further evaluation and consultation with a healthcare professional are necessary to determine the cause of the patient's symptoms [R2].</t>
+- Further evaluation is needed to determine the cause of the widened mediastinum and pleural effusion [Rx]. - Additional diagnostic tests, such as a CT scan or MRI, may be necessary to further investigate the underlying cause of these findings [Rx] [R1].</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -3695,10 +3700,10 @@
         <v>0.587</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.9127856492996216</v>
+        <v>0.9201963603496551</v>
       </c>
       <c r="R39" t="n">
-        <v>0.7498928246498108</v>
+        <v>0.7535981801748275</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -3734,7 +3739,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
         <v>1</v>
@@ -3746,7 +3751,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0.5920379161834717</v>
+        <v>0.5920377969741821</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -3778,10 +3783,10 @@
         <v>0.53</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.8776113986968994</v>
+        <v>0.8776113390922546</v>
       </c>
       <c r="R40" t="n">
-        <v>0.7038056993484497</v>
+        <v>0.7038056695461273</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
